--- a/Definitions/j_Definitions_Linux.xlsx
+++ b/Definitions/j_Definitions_Linux.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="commands" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Commands" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>present working directory</t>
   </si>
@@ -40,19 +39,47 @@
   </si>
   <si>
     <t>cd ..</t>
+  </si>
+  <si>
+    <t>set environment variable</t>
+  </si>
+  <si>
+    <t>export JAVA_HOME=/usr/java</t>
+  </si>
+  <si>
+    <t>to know where java installed</t>
+  </si>
+  <si>
+    <t>$which java</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,13 +99,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,34 +404,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="1" max="1" width="62.125" customWidth="1"/>
     <col min="2" max="2" width="113" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="commands!A1" display="Commands"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
-    <col min="2" max="2" width="123.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="117.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
@@ -431,19 +490,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>